--- a/Assets/UnitEditor/UnitDataTest.xlsx
+++ b/Assets/UnitEditor/UnitDataTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\- GitHub\RTS_Project\Assets\UnitEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB6C834-697C-4DB8-B3B3-A70C2D877A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624B8A85-9E6E-4D6B-8864-27E652229A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="1590" windowWidth="20145" windowHeight="12195" xr2:uid="{618DFF84-34B4-4058-A494-DA8BE91B88BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{618DFF84-34B4-4058-A494-DA8BE91B88BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -56,19 +56,7 @@
     <t>HealthMax</t>
   </si>
   <si>
-    <t>HealthRegen</t>
-  </si>
-  <si>
-    <t>HealthRegenRate</t>
-  </si>
-  <si>
     <t>ManaMax</t>
-  </si>
-  <si>
-    <t>ManaRegen</t>
-  </si>
-  <si>
-    <t>ManaRegenRate</t>
   </si>
   <si>
     <t>Test</t>
@@ -76,15 +64,47 @@
   <si>
     <t>TestUnit</t>
   </si>
+  <si>
+    <t>Health Regen</t>
+  </si>
+  <si>
+    <t>Health Regen Rate</t>
+  </si>
+  <si>
+    <t>Mana Regen</t>
+  </si>
+  <si>
+    <t>Mana Regen Rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -106,18 +126,1022 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial Black"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -128,6 +1152,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F0A3CEE-F12E-4E93-A64F-9358F0D01848}" name="Tabelle1" displayName="Tabelle1" ref="A1:L22" headerRowDxfId="25" dataDxfId="0" headerRowBorderDxfId="26" tableBorderDxfId="27">
+  <autoFilter ref="A1:L22" xr:uid="{6F0A3CEE-F12E-4E93-A64F-9358F0D01848}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{03664DA7-5E73-47EE-B32F-00F1A14410B1}" name="Name" totalsRowLabel="Ergebnis" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{07F08624-7DB7-40E2-B71A-1042306CFAE5}" name="Type" dataDxfId="11" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{92BF9A28-2D8E-4444-B7FF-5A5AA8D62D83}" name="ToolTip" dataDxfId="10" totalsRowDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{C9907E8C-78E9-4324-95D6-5BAC17F19AEA}" name="BuildTIme" dataDxfId="9" totalsRowDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{572A806E-2C56-47FB-A3F2-961E5EECF533}" name="DeathTime" dataDxfId="8" totalsRowDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{FE86D60D-8A98-4DB6-B46B-2B89D94E7EE0}" name="--" dataDxfId="7" totalsRowDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{6B425B68-058F-487B-9DB2-97E1721A81F7}" name="HealthMax" dataDxfId="6" totalsRowDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{A1E91172-0F9D-4489-900D-05EFD974174E}" name="Health Regen" dataDxfId="5" totalsRowDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{8C9CBF2D-F329-4E2F-8AE0-EF7C036E53DA}" name="Health Regen Rate" dataDxfId="4" totalsRowDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{A5C196DD-9699-47F2-8D93-AFBB8158CFD8}" name="ManaMax" dataDxfId="3" totalsRowDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{60A947E0-B484-4B6A-B56A-FCD6CD29245E}" name="Mana Regen" dataDxfId="2" totalsRowDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{32E93C11-ABED-48E4-940A-EF0CEBD2D998}" name="Mana Regen Rate" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,91 +1472,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B73229-0EBE-4186-A494-AC0BF15A3856}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
+      <c r="D2" s="8">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E2" s="8">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8">
         <v>5000</v>
       </c>
-      <c r="H3">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="I2" s="8">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="J2" s="8">
         <v>2000</v>
       </c>
-      <c r="K3">
+      <c r="K2" s="8">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="L2" s="9">
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>